--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1785.750589102897</v>
+        <v>1907.621343893658</v>
       </c>
       <c r="AB2" t="n">
-        <v>2443.342737766437</v>
+        <v>2610.091681029399</v>
       </c>
       <c r="AC2" t="n">
-        <v>2210.153536127078</v>
+        <v>2360.988194278635</v>
       </c>
       <c r="AD2" t="n">
-        <v>1785750.589102897</v>
+        <v>1907621.343893658</v>
       </c>
       <c r="AE2" t="n">
-        <v>2443342.737766437</v>
+        <v>2610091.681029399</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.484396314965719e-07</v>
+        <v>1.384809270563637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.30381944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>2210153.536127077</v>
+        <v>2360988.194278635</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1050.543241753917</v>
+        <v>1135.827194703644</v>
       </c>
       <c r="AB3" t="n">
-        <v>1437.39961006455</v>
+        <v>1554.088876952829</v>
       </c>
       <c r="AC3" t="n">
-        <v>1300.216208683012</v>
+        <v>1405.768815713888</v>
       </c>
       <c r="AD3" t="n">
-        <v>1050543.241753917</v>
+        <v>1135827.194703644</v>
       </c>
       <c r="AE3" t="n">
-        <v>1437399.61006455</v>
+        <v>1554088.876952829</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.053624018460755e-06</v>
+        <v>1.949480288123478e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.4212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1300216.208683012</v>
+        <v>1405768.815713888</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>877.7402871188895</v>
+        <v>963.0241505600651</v>
       </c>
       <c r="AB4" t="n">
-        <v>1200.962984004589</v>
+        <v>1317.652128423319</v>
       </c>
       <c r="AC4" t="n">
-        <v>1086.344762373325</v>
+        <v>1191.897258622974</v>
       </c>
       <c r="AD4" t="n">
-        <v>877740.2871188895</v>
+        <v>963024.1505600651</v>
       </c>
       <c r="AE4" t="n">
-        <v>1200962.984004589</v>
+        <v>1317652.128423319</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.172315588679144e-06</v>
+        <v>2.169090768193215e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>1086344.762373324</v>
+        <v>1191897.258622974</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>803.0760933226816</v>
+        <v>876.1644456587302</v>
       </c>
       <c r="AB5" t="n">
-        <v>1098.804140100862</v>
+        <v>1198.80684819758</v>
       </c>
       <c r="AC5" t="n">
-        <v>993.9358151509319</v>
+        <v>1084.394405141581</v>
       </c>
       <c r="AD5" t="n">
-        <v>803076.0933226816</v>
+        <v>876164.4456587302</v>
       </c>
       <c r="AE5" t="n">
-        <v>1098804.140100862</v>
+        <v>1198806.84819758</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.238278691419983e-06</v>
+        <v>2.291139778355865e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.27141203703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>993935.8151509319</v>
+        <v>1084394.405141581</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>740.6608383863089</v>
+        <v>813.8344420683777</v>
       </c>
       <c r="AB6" t="n">
-        <v>1013.404834730206</v>
+        <v>1113.524187479573</v>
       </c>
       <c r="AC6" t="n">
-        <v>916.6868996261733</v>
+        <v>1007.251001867535</v>
       </c>
       <c r="AD6" t="n">
-        <v>740660.8383863089</v>
+        <v>813834.4420683777</v>
       </c>
       <c r="AE6" t="n">
-        <v>1013404.834730206</v>
+        <v>1113524.187479573</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.279820740996418e-06</v>
+        <v>2.368003446380273e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>916686.8996261733</v>
+        <v>1007251.001867535</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>704.1509280487318</v>
+        <v>777.3245317308009</v>
       </c>
       <c r="AB7" t="n">
-        <v>963.4503647027673</v>
+        <v>1063.569717452134</v>
       </c>
       <c r="AC7" t="n">
-        <v>871.5000141066139</v>
+        <v>962.0641163479753</v>
       </c>
       <c r="AD7" t="n">
-        <v>704150.9280487318</v>
+        <v>777324.5317308009</v>
       </c>
       <c r="AE7" t="n">
-        <v>963450.3647027672</v>
+        <v>1063569.717452134</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.305397198826664e-06</v>
+        <v>2.415326589651937e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>871500.0141066139</v>
+        <v>962064.1163479753</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>669.2555586856511</v>
+        <v>742.2585701671279</v>
       </c>
       <c r="AB8" t="n">
-        <v>915.7049808651549</v>
+        <v>1015.590921839675</v>
       </c>
       <c r="AC8" t="n">
-        <v>828.311382691396</v>
+        <v>918.6643496501065</v>
       </c>
       <c r="AD8" t="n">
-        <v>669255.558685651</v>
+        <v>742258.5701671279</v>
       </c>
       <c r="AE8" t="n">
-        <v>915704.9808651549</v>
+        <v>1015590.921839675</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.326247001205735e-06</v>
+        <v>2.453904182832329e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>828311.3826913961</v>
+        <v>918664.3496501065</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>663.5557693370721</v>
+        <v>736.5587808185488</v>
       </c>
       <c r="AB9" t="n">
-        <v>907.9062776214697</v>
+        <v>1007.79221859599</v>
       </c>
       <c r="AC9" t="n">
-        <v>821.2569767397398</v>
+        <v>911.6099436984501</v>
       </c>
       <c r="AD9" t="n">
-        <v>663555.769337072</v>
+        <v>736558.7808185489</v>
       </c>
       <c r="AE9" t="n">
-        <v>907906.2776214697</v>
+        <v>1007792.21859599</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.330500991111792e-06</v>
+        <v>2.461775177914474e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.42071759259259</v>
       </c>
       <c r="AH9" t="n">
-        <v>821256.9767397398</v>
+        <v>911609.9436984501</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1323.537184899071</v>
+        <v>1429.410594093526</v>
       </c>
       <c r="AB2" t="n">
-        <v>1810.921966718524</v>
+        <v>1955.782635983542</v>
       </c>
       <c r="AC2" t="n">
-        <v>1638.090115859851</v>
+        <v>1769.125486163442</v>
       </c>
       <c r="AD2" t="n">
-        <v>1323537.184899071</v>
+        <v>1429410.594093526</v>
       </c>
       <c r="AE2" t="n">
-        <v>1810921.966718524</v>
+        <v>1955782.635983542</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.870384602492271e-07</v>
+        <v>1.690832204008271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.72280092592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>1638090.115859851</v>
+        <v>1769125.486163442</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>853.1398025467237</v>
+        <v>935.3151952751521</v>
       </c>
       <c r="AB3" t="n">
-        <v>1167.303515716168</v>
+        <v>1279.739513369669</v>
       </c>
       <c r="AC3" t="n">
-        <v>1055.897706496991</v>
+        <v>1157.602970339355</v>
       </c>
       <c r="AD3" t="n">
-        <v>853139.8025467236</v>
+        <v>935315.1952751521</v>
       </c>
       <c r="AE3" t="n">
-        <v>1167303.515716169</v>
+        <v>1279739.513369669</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.169878064834116e-06</v>
+        <v>2.229968141661671e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1055897.706496991</v>
+        <v>1157602.970339355</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>732.0428461248164</v>
+        <v>802.5398675750993</v>
       </c>
       <c r="AB4" t="n">
-        <v>1001.613317519047</v>
+        <v>1098.07045237641</v>
       </c>
       <c r="AC4" t="n">
-        <v>906.0207482681484</v>
+        <v>993.2721495531637</v>
       </c>
       <c r="AD4" t="n">
-        <v>732042.8461248163</v>
+        <v>802539.8675750992</v>
       </c>
       <c r="AE4" t="n">
-        <v>1001613.317519047</v>
+        <v>1098070.45237641</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.275223050099213e-06</v>
+        <v>2.430771941721206e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.32638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>906020.7482681484</v>
+        <v>993272.1495531637</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>657.1143063818088</v>
+        <v>727.6965791781122</v>
       </c>
       <c r="AB5" t="n">
-        <v>899.0927838287892</v>
+        <v>995.6665633388012</v>
       </c>
       <c r="AC5" t="n">
-        <v>813.2846304248162</v>
+        <v>900.6415439605438</v>
       </c>
       <c r="AD5" t="n">
-        <v>657114.3063818088</v>
+        <v>727696.5791781122</v>
       </c>
       <c r="AE5" t="n">
-        <v>899092.7838287891</v>
+        <v>995666.5633388013</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.333355661875209e-06</v>
+        <v>2.541581671511667e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.79108796296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>813284.6304248162</v>
+        <v>900641.5439605438</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>611.8271755003231</v>
+        <v>682.2388560960343</v>
       </c>
       <c r="AB6" t="n">
-        <v>837.1289334295325</v>
+        <v>933.4693011646976</v>
       </c>
       <c r="AC6" t="n">
-        <v>757.2345229408545</v>
+        <v>844.3803011939308</v>
       </c>
       <c r="AD6" t="n">
-        <v>611827.1755003231</v>
+        <v>682238.8560960343</v>
       </c>
       <c r="AE6" t="n">
-        <v>837128.9334295325</v>
+        <v>933469.3011646976</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.367365956241352e-06</v>
+        <v>2.606410541463843e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.49594907407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>757234.5229408545</v>
+        <v>844380.3011939308</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>607.2523487743397</v>
+        <v>677.6640293700508</v>
       </c>
       <c r="AB7" t="n">
-        <v>830.8694536759311</v>
+        <v>927.2098214110961</v>
       </c>
       <c r="AC7" t="n">
-        <v>751.5724391497016</v>
+        <v>838.7182174027779</v>
       </c>
       <c r="AD7" t="n">
-        <v>607252.3487743397</v>
+        <v>677664.0293700508</v>
       </c>
       <c r="AE7" t="n">
-        <v>830869.4536759311</v>
+        <v>927209.821411096</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.372364274263213e-06</v>
+        <v>2.61593810701592e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.45543981481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>751572.4391497016</v>
+        <v>838718.2174027779</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>593.4548423671573</v>
+        <v>656.2355868228539</v>
       </c>
       <c r="AB2" t="n">
-        <v>811.9910967066018</v>
+        <v>897.8904809618558</v>
       </c>
       <c r="AC2" t="n">
-        <v>734.4958060735848</v>
+        <v>812.1970736560604</v>
       </c>
       <c r="AD2" t="n">
-        <v>593454.8423671573</v>
+        <v>656235.5868228539</v>
       </c>
       <c r="AE2" t="n">
-        <v>811991.0967066018</v>
+        <v>897890.4809618559</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.330269276299229e-06</v>
+        <v>2.833125423144381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.18576388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>734495.8060735848</v>
+        <v>812197.0736560604</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>474.0583057641914</v>
+        <v>547.1317214933844</v>
       </c>
       <c r="AB3" t="n">
-        <v>648.6274879229836</v>
+        <v>748.6097590952448</v>
       </c>
       <c r="AC3" t="n">
-        <v>586.7233908300102</v>
+        <v>677.1634943675897</v>
       </c>
       <c r="AD3" t="n">
-        <v>474058.3057641914</v>
+        <v>547131.7214933843</v>
       </c>
       <c r="AE3" t="n">
-        <v>648627.4879229836</v>
+        <v>748609.7590952448</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.469946640952805e-06</v>
+        <v>3.130601655880318e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.93287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>586723.3908300102</v>
+        <v>677163.4943675897</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>807.7688580460733</v>
+        <v>895.4578855611045</v>
       </c>
       <c r="AB2" t="n">
-        <v>1105.224987825575</v>
+        <v>1225.204983838505</v>
       </c>
       <c r="AC2" t="n">
-        <v>999.7438661805144</v>
+        <v>1108.273139766952</v>
       </c>
       <c r="AD2" t="n">
-        <v>807768.8580460734</v>
+        <v>895457.8855611045</v>
       </c>
       <c r="AE2" t="n">
-        <v>1105224.987825575</v>
+        <v>1225204.983838505</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.152224799196438e-06</v>
+        <v>2.339414702963887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.56597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>999743.8661805143</v>
+        <v>1108273.139766952</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>579.7640949694348</v>
+        <v>645.5096199006164</v>
       </c>
       <c r="AB3" t="n">
-        <v>793.2588121238902</v>
+        <v>883.2147398225865</v>
       </c>
       <c r="AC3" t="n">
-        <v>717.5513044405207</v>
+        <v>798.9219646535909</v>
       </c>
       <c r="AD3" t="n">
-        <v>579764.0949694348</v>
+        <v>645509.6199006164</v>
       </c>
       <c r="AE3" t="n">
-        <v>793258.8121238902</v>
+        <v>883214.7398225864</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.386474356953242e-06</v>
+        <v>2.815022292699183e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.10358796296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>717551.3044405207</v>
+        <v>798921.9646535908</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>521.1793070287173</v>
+        <v>587.0100833059195</v>
       </c>
       <c r="AB4" t="n">
-        <v>713.100520684967</v>
+        <v>803.1730930363125</v>
       </c>
       <c r="AC4" t="n">
-        <v>645.0432078336597</v>
+        <v>726.5193802974422</v>
       </c>
       <c r="AD4" t="n">
-        <v>521179.3070287173</v>
+        <v>587010.0833059194</v>
       </c>
       <c r="AE4" t="n">
-        <v>713100.5206849671</v>
+        <v>803173.0930363125</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.439077562916456e-06</v>
+        <v>2.921824987398345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.66087962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>645043.2078336597</v>
+        <v>726519.3802974422</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>451.2901150274294</v>
+        <v>511.4837934633697</v>
       </c>
       <c r="AB2" t="n">
-        <v>617.4750448952617</v>
+        <v>699.834691288988</v>
       </c>
       <c r="AC2" t="n">
-        <v>558.5440932421255</v>
+        <v>633.0434505765245</v>
       </c>
       <c r="AD2" t="n">
-        <v>451290.1150274294</v>
+        <v>511483.7934633697</v>
       </c>
       <c r="AE2" t="n">
-        <v>617475.0448952618</v>
+        <v>699834.691288988</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.472892890339686e-06</v>
+        <v>3.27984477539503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.36979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>558544.0932421256</v>
+        <v>633043.4505765245</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>451.8835953335986</v>
+        <v>512.0772737695389</v>
       </c>
       <c r="AB3" t="n">
-        <v>618.2870708326658</v>
+        <v>700.646717226392</v>
       </c>
       <c r="AC3" t="n">
-        <v>559.2786205637494</v>
+        <v>633.7779778981483</v>
       </c>
       <c r="AD3" t="n">
-        <v>451883.5953335986</v>
+        <v>512077.273769539</v>
       </c>
       <c r="AE3" t="n">
-        <v>618287.0708326658</v>
+        <v>700646.717226392</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.477174372686674e-06</v>
+        <v>3.289378800305339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.33217592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>559278.6205637495</v>
+        <v>633777.9778981482</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1431.687549054667</v>
+        <v>1538.497370656973</v>
       </c>
       <c r="AB2" t="n">
-        <v>1958.898066213538</v>
+        <v>2105.039976246578</v>
       </c>
       <c r="AC2" t="n">
-        <v>1771.943584104821</v>
+        <v>1904.137915355766</v>
       </c>
       <c r="AD2" t="n">
-        <v>1431687.549054667</v>
+        <v>1538497.370656973</v>
       </c>
       <c r="AE2" t="n">
-        <v>1958898.066213537</v>
+        <v>2105039.976246578</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.50265052057744e-07</v>
+        <v>1.60765026913048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.32175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1771943.584104821</v>
+        <v>1904137.915355766</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>898.6072221810165</v>
+        <v>981.7478344741593</v>
       </c>
       <c r="AB3" t="n">
-        <v>1229.514045140794</v>
+        <v>1343.270698785219</v>
       </c>
       <c r="AC3" t="n">
-        <v>1112.170950306356</v>
+        <v>1215.070828585423</v>
       </c>
       <c r="AD3" t="n">
-        <v>898607.2221810165</v>
+        <v>981747.8344741593</v>
       </c>
       <c r="AE3" t="n">
-        <v>1229514.045140794</v>
+        <v>1343270.698785219</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.138693996072013e-06</v>
+        <v>2.153001237451907e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.68055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1112170.950306356</v>
+        <v>1215070.828585424</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>767.6792575078138</v>
+        <v>838.8573881273443</v>
       </c>
       <c r="AB4" t="n">
-        <v>1050.372627740776</v>
+        <v>1147.76168621192</v>
       </c>
       <c r="AC4" t="n">
-        <v>950.1265383564375</v>
+        <v>1038.220921773497</v>
       </c>
       <c r="AD4" t="n">
-        <v>767679.2575078137</v>
+        <v>838857.3881273443</v>
       </c>
       <c r="AE4" t="n">
-        <v>1050372.627740776</v>
+        <v>1147761.68621192</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.248853715962473e-06</v>
+        <v>2.361287233566457e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>950126.5383564376</v>
+        <v>1038220.921773497</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>692.0292623241672</v>
+        <v>774.9991929081669</v>
       </c>
       <c r="AB5" t="n">
-        <v>946.8649668882682</v>
+        <v>1060.388086288297</v>
       </c>
       <c r="AC5" t="n">
-        <v>856.4975033817789</v>
+        <v>959.1861355969681</v>
       </c>
       <c r="AD5" t="n">
-        <v>692029.2623241672</v>
+        <v>774999.1929081669</v>
       </c>
       <c r="AE5" t="n">
-        <v>946864.9668882682</v>
+        <v>1060388.086288298</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.307917847301591e-06</v>
+        <v>2.472963547221227e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.91261574074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>856497.5033817788</v>
+        <v>959186.1355969681</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>633.6222107669327</v>
+        <v>704.7150005318916</v>
       </c>
       <c r="AB6" t="n">
-        <v>866.9498622104024</v>
+        <v>964.222153559348</v>
       </c>
       <c r="AC6" t="n">
-        <v>784.2093841328146</v>
+        <v>872.1981445179352</v>
       </c>
       <c r="AD6" t="n">
-        <v>633622.2107669327</v>
+        <v>704715.0005318916</v>
       </c>
       <c r="AE6" t="n">
-        <v>866949.8622104025</v>
+        <v>964222.1535593481</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.356536726608084e-06</v>
+        <v>2.564890357823103e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>784209.3841328146</v>
+        <v>872198.1445179352</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>620.9743726191481</v>
+        <v>692.067162384107</v>
       </c>
       <c r="AB7" t="n">
-        <v>849.6445320733651</v>
+        <v>946.9168234223105</v>
       </c>
       <c r="AC7" t="n">
-        <v>768.5556504158726</v>
+        <v>856.5444108009931</v>
       </c>
       <c r="AD7" t="n">
-        <v>620974.3726191481</v>
+        <v>692067.1623841069</v>
       </c>
       <c r="AE7" t="n">
-        <v>849644.5320733651</v>
+        <v>946916.8234223105</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.359551850906161e-06</v>
+        <v>2.570591245302289e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>768555.6504158726</v>
+        <v>856544.4108009931</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>623.212553468344</v>
+        <v>694.3053432333029</v>
       </c>
       <c r="AB8" t="n">
-        <v>852.7069098528051</v>
+        <v>949.9792012017507</v>
       </c>
       <c r="AC8" t="n">
-        <v>771.3257591581171</v>
+        <v>859.3145195432379</v>
       </c>
       <c r="AD8" t="n">
-        <v>623212.553468344</v>
+        <v>694305.3432333029</v>
       </c>
       <c r="AE8" t="n">
-        <v>852706.9098528051</v>
+        <v>949979.2012017507</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.359821058432775e-06</v>
+        <v>2.571100253112931e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.45543981481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>771325.7591581171</v>
+        <v>859314.5195432379</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>430.9690996365515</v>
+        <v>499.4808816755713</v>
       </c>
       <c r="AB2" t="n">
-        <v>589.6709351375356</v>
+        <v>683.4117778498266</v>
       </c>
       <c r="AC2" t="n">
-        <v>533.3935686963637</v>
+        <v>618.1879169462927</v>
       </c>
       <c r="AD2" t="n">
-        <v>430969.0996365515</v>
+        <v>499480.8816755713</v>
       </c>
       <c r="AE2" t="n">
-        <v>589670.9351375356</v>
+        <v>683411.7778498266</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.467059810754194e-06</v>
+        <v>3.363332539732655e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>533393.5686963637</v>
+        <v>618187.9169462927</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1054.816302598305</v>
+        <v>1145.89337658554</v>
       </c>
       <c r="AB2" t="n">
-        <v>1443.246200425981</v>
+        <v>1567.861871092242</v>
       </c>
       <c r="AC2" t="n">
-        <v>1305.504808666089</v>
+        <v>1418.227334623154</v>
       </c>
       <c r="AD2" t="n">
-        <v>1054816.302598305</v>
+        <v>1145893.37658554</v>
       </c>
       <c r="AE2" t="n">
-        <v>1443246.200425981</v>
+        <v>1567861.871092242</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.008020584544252e-06</v>
+        <v>1.975706414928601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.06770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1305504.808666089</v>
+        <v>1418227.334623154</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>711.5546591409912</v>
+        <v>791.2363529530187</v>
       </c>
       <c r="AB3" t="n">
-        <v>973.5804762127602</v>
+        <v>1082.604484994609</v>
       </c>
       <c r="AC3" t="n">
-        <v>880.6633219917942</v>
+        <v>979.2822323916604</v>
       </c>
       <c r="AD3" t="n">
-        <v>711554.6591409913</v>
+        <v>791236.3529530187</v>
       </c>
       <c r="AE3" t="n">
-        <v>973580.4762127602</v>
+        <v>1082604.484994609</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.269205838180606e-06</v>
+        <v>2.487625902492842e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>880663.3219917942</v>
+        <v>979282.2323916603</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>608.8015629232193</v>
+        <v>677.1733069231611</v>
       </c>
       <c r="AB4" t="n">
-        <v>832.9891568209326</v>
+        <v>926.5383933101153</v>
       </c>
       <c r="AC4" t="n">
-        <v>753.4898408015666</v>
+        <v>838.1108694573994</v>
       </c>
       <c r="AD4" t="n">
-        <v>608801.5629232193</v>
+        <v>677173.3069231611</v>
       </c>
       <c r="AE4" t="n">
-        <v>832989.1568209326</v>
+        <v>926538.3933101153</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.365596966933672e-06</v>
+        <v>2.676551182729795e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.86053240740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>753489.8408015666</v>
+        <v>838110.8694573995</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>564.3316668536011</v>
+        <v>632.7034108535431</v>
       </c>
       <c r="AB5" t="n">
-        <v>772.1434831451287</v>
+        <v>865.6927196343114</v>
       </c>
       <c r="AC5" t="n">
-        <v>698.4511928239418</v>
+        <v>783.072221479775</v>
       </c>
       <c r="AD5" t="n">
-        <v>564331.6668536011</v>
+        <v>632703.4108535431</v>
       </c>
       <c r="AE5" t="n">
-        <v>772143.4831451287</v>
+        <v>865692.7196343114</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.404836328870895e-06</v>
+        <v>2.753459789841354e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.52777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>698451.1928239418</v>
+        <v>783072.2214797749</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>567.2613758570773</v>
+        <v>635.6331198570193</v>
       </c>
       <c r="AB6" t="n">
-        <v>776.1520402533242</v>
+        <v>869.7012767425067</v>
       </c>
       <c r="AC6" t="n">
-        <v>702.0771788677762</v>
+        <v>786.6982075236094</v>
       </c>
       <c r="AD6" t="n">
-        <v>567261.3758570773</v>
+        <v>635633.1198570193</v>
       </c>
       <c r="AE6" t="n">
-        <v>776152.0402533242</v>
+        <v>869701.2767425067</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.404836328870895e-06</v>
+        <v>2.753459789841354e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.52777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>702077.1788677762</v>
+        <v>786698.2075236094</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1232.46680619573</v>
+        <v>1325.633913832318</v>
       </c>
       <c r="AB2" t="n">
-        <v>1686.315456835061</v>
+        <v>1813.790803746143</v>
       </c>
       <c r="AC2" t="n">
-        <v>1525.375876393331</v>
+        <v>1640.685155107992</v>
       </c>
       <c r="AD2" t="n">
-        <v>1232466.80619573</v>
+        <v>1325633.913832318</v>
       </c>
       <c r="AE2" t="n">
-        <v>1686315.456835062</v>
+        <v>1813790.803746143</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.257386769812992e-07</v>
+        <v>1.779920606652999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.14409722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1525375.876393331</v>
+        <v>1640685.155107992</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>809.6528365735861</v>
+        <v>891.003385235026</v>
       </c>
       <c r="AB3" t="n">
-        <v>1107.802730362185</v>
+        <v>1219.110139973679</v>
       </c>
       <c r="AC3" t="n">
-        <v>1002.075592587315</v>
+        <v>1102.759979246419</v>
       </c>
       <c r="AD3" t="n">
-        <v>809652.8365735861</v>
+        <v>891003.385235026</v>
       </c>
       <c r="AE3" t="n">
-        <v>1107802.730362185</v>
+        <v>1219110.13997368</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.201063527887522e-06</v>
+        <v>2.309288545831745e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.21180555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1002075.592587315</v>
+        <v>1102759.979246419</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>694.3957162293771</v>
+        <v>764.1857284793839</v>
       </c>
       <c r="AB4" t="n">
-        <v>950.1028535219546</v>
+        <v>1045.592627200455</v>
       </c>
       <c r="AC4" t="n">
-        <v>859.4263706595484</v>
+        <v>945.8027343589121</v>
       </c>
       <c r="AD4" t="n">
-        <v>694395.7162293771</v>
+        <v>764185.7284793839</v>
       </c>
       <c r="AE4" t="n">
-        <v>950102.8535219545</v>
+        <v>1045592.627200455</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.305215299176548e-06</v>
+        <v>2.509541477405537e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.15856481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>859426.3706595484</v>
+        <v>945802.7343589121</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>620.8354598514064</v>
+        <v>690.7107234474339</v>
       </c>
       <c r="AB5" t="n">
-        <v>849.454465496142</v>
+        <v>945.0608838272921</v>
       </c>
       <c r="AC5" t="n">
-        <v>768.3837235260196</v>
+        <v>854.8655994760957</v>
       </c>
       <c r="AD5" t="n">
-        <v>620835.4598514064</v>
+        <v>690710.7234474339</v>
       </c>
       <c r="AE5" t="n">
-        <v>849454.465496142</v>
+        <v>945060.883827292</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.361761100229201e-06</v>
+        <v>2.618262263320535e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.65509259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>768383.7235260196</v>
+        <v>854865.5994760956</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>588.6520265102107</v>
+        <v>658.3566979056459</v>
       </c>
       <c r="AB6" t="n">
-        <v>805.4196721658459</v>
+        <v>900.7926787221487</v>
       </c>
       <c r="AC6" t="n">
-        <v>728.5515490679464</v>
+        <v>814.8222897353712</v>
       </c>
       <c r="AD6" t="n">
-        <v>588652.0265102107</v>
+        <v>658356.6979056459</v>
       </c>
       <c r="AE6" t="n">
-        <v>805419.6721658459</v>
+        <v>900792.6787221488</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.389019357380673e-06</v>
+        <v>2.670671798334844e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.42650462962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>728551.5490679464</v>
+        <v>814822.2897353712</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>590.6350962330062</v>
+        <v>660.3397676284413</v>
       </c>
       <c r="AB7" t="n">
-        <v>808.132995647436</v>
+        <v>903.5060022037392</v>
       </c>
       <c r="AC7" t="n">
-        <v>731.0059167646269</v>
+        <v>817.2766574320518</v>
       </c>
       <c r="AD7" t="n">
-        <v>590635.0962330061</v>
+        <v>660339.7676284413</v>
       </c>
       <c r="AE7" t="n">
-        <v>808132.995647436</v>
+        <v>903506.0022037391</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.389348430907653e-06</v>
+        <v>2.671304509019122e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.42361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>731005.916764627</v>
+        <v>817276.6574320518</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1656.619673776565</v>
+        <v>1777.548228170261</v>
       </c>
       <c r="AB2" t="n">
-        <v>2266.66012256303</v>
+        <v>2432.119905675779</v>
       </c>
       <c r="AC2" t="n">
-        <v>2050.333261743076</v>
+        <v>2200.001795379809</v>
       </c>
       <c r="AD2" t="n">
-        <v>1656619.673776565</v>
+        <v>1777548.228170261</v>
       </c>
       <c r="AE2" t="n">
-        <v>2266660.12256303</v>
+        <v>2432119.905675779</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.807859222155672e-07</v>
+        <v>1.454544953267308e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.61805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>2050333.261743076</v>
+        <v>2200001.795379809</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1002.12033916491</v>
+        <v>1086.685075894476</v>
       </c>
       <c r="AB3" t="n">
-        <v>1371.145258474579</v>
+        <v>1486.850462000854</v>
       </c>
       <c r="AC3" t="n">
-        <v>1240.285079420221</v>
+        <v>1344.947540715221</v>
       </c>
       <c r="AD3" t="n">
-        <v>1002120.33916491</v>
+        <v>1086685.075894476</v>
       </c>
       <c r="AE3" t="n">
-        <v>1371145.258474579</v>
+        <v>1486850.462000854</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.08158093272671e-06</v>
+        <v>2.014903243623592e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.16377314814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>1240285.079420221</v>
+        <v>1344947.540715221</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>840.5849901679208</v>
+        <v>925.149637388936</v>
       </c>
       <c r="AB4" t="n">
-        <v>1150.125467540259</v>
+        <v>1265.830548596986</v>
       </c>
       <c r="AC4" t="n">
-        <v>1040.359107129448</v>
+        <v>1145.021457643222</v>
       </c>
       <c r="AD4" t="n">
-        <v>840584.9901679207</v>
+        <v>925149.637388936</v>
       </c>
       <c r="AE4" t="n">
-        <v>1150125.467540259</v>
+        <v>1265830.548596986</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.197303898755813e-06</v>
+        <v>2.230486352162635e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.79224537037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1040359.107129448</v>
+        <v>1145021.457643222</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>768.0977115937325</v>
+        <v>840.5695928839291</v>
       </c>
       <c r="AB5" t="n">
-        <v>1050.945175082021</v>
+        <v>1150.104400297022</v>
       </c>
       <c r="AC5" t="n">
-        <v>950.6444425830097</v>
+        <v>1040.340050514337</v>
       </c>
       <c r="AD5" t="n">
-        <v>768097.7115937325</v>
+        <v>840569.5928839291</v>
       </c>
       <c r="AE5" t="n">
-        <v>1050945.175082021</v>
+        <v>1150104.400297021</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.262470857210444e-06</v>
+        <v>2.351887453082836e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.13252314814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>950644.4425830097</v>
+        <v>1040340.050514337</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>707.966207088694</v>
+        <v>780.5233397249114</v>
       </c>
       <c r="AB6" t="n">
-        <v>968.6705978034754</v>
+        <v>1067.946467671125</v>
       </c>
       <c r="AC6" t="n">
-        <v>876.2220354868336</v>
+        <v>966.0231556688731</v>
       </c>
       <c r="AD6" t="n">
-        <v>707966.207088694</v>
+        <v>780523.3397249114</v>
       </c>
       <c r="AE6" t="n">
-        <v>968670.5978034755</v>
+        <v>1067946.467671125</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.301486331118701e-06</v>
+        <v>2.424570321789732e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>876222.0354868337</v>
+        <v>966023.1556688731</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>669.5241511085069</v>
+        <v>742.0812837447241</v>
       </c>
       <c r="AB7" t="n">
-        <v>916.0724808675673</v>
+        <v>1015.348350735217</v>
       </c>
       <c r="AC7" t="n">
-        <v>828.6438090093679</v>
+        <v>918.4449291914073</v>
       </c>
       <c r="AD7" t="n">
-        <v>669524.1511085068</v>
+        <v>742081.2837447241</v>
       </c>
       <c r="AE7" t="n">
-        <v>916072.4808675672</v>
+        <v>1015348.350735217</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.328008383259863e-06</v>
+        <v>2.473978893325899e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.53356481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>828643.8090093679</v>
+        <v>918444.9291914073</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>648.9957873535379</v>
+        <v>721.382327789163</v>
       </c>
       <c r="AB8" t="n">
-        <v>887.9846679305273</v>
+        <v>987.0271260233296</v>
       </c>
       <c r="AC8" t="n">
-        <v>803.2366575175458</v>
+        <v>892.8266424169343</v>
       </c>
       <c r="AD8" t="n">
-        <v>648995.787353538</v>
+        <v>721382.327789163</v>
       </c>
       <c r="AE8" t="n">
-        <v>887984.6679305272</v>
+        <v>987027.1260233297</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.340395928571304e-06</v>
+        <v>2.497055950690097e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.42650462962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>803236.6575175459</v>
+        <v>892826.6424169342</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>651.2041541460994</v>
+        <v>723.5906945817245</v>
       </c>
       <c r="AB9" t="n">
-        <v>891.0062528023769</v>
+        <v>990.0487108951794</v>
       </c>
       <c r="AC9" t="n">
-        <v>805.9698665700472</v>
+        <v>895.5598514694358</v>
       </c>
       <c r="AD9" t="n">
-        <v>651204.1541460995</v>
+        <v>723590.6945817245</v>
       </c>
       <c r="AE9" t="n">
-        <v>891006.252802377</v>
+        <v>990048.7108951794</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.340501805026957e-06</v>
+        <v>2.497253190496628e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.42650462962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>805969.8665700472</v>
+        <v>895559.8514694357</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>891.6027780498609</v>
+        <v>969.4462519821752</v>
       </c>
       <c r="AB2" t="n">
-        <v>1219.930255666281</v>
+        <v>1326.439130912169</v>
       </c>
       <c r="AC2" t="n">
-        <v>1103.501824248358</v>
+        <v>1199.845641926924</v>
       </c>
       <c r="AD2" t="n">
-        <v>891602.778049861</v>
+        <v>969446.2519821753</v>
       </c>
       <c r="AE2" t="n">
-        <v>1219930.255666281</v>
+        <v>1326439.130912169</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.100463508239927e-06</v>
+        <v>2.205876191501734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.05787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1103501.824248358</v>
+        <v>1199845.641926924</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>624.996811783731</v>
+        <v>691.6344613723645</v>
       </c>
       <c r="AB3" t="n">
-        <v>855.1482107958387</v>
+        <v>946.3247828086234</v>
       </c>
       <c r="AC3" t="n">
-        <v>773.5340657655352</v>
+        <v>856.0088737125419</v>
       </c>
       <c r="AD3" t="n">
-        <v>624996.811783731</v>
+        <v>691634.4613723645</v>
       </c>
       <c r="AE3" t="n">
-        <v>855148.2107958387</v>
+        <v>946324.7828086234</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.344438243868451e-06</v>
+        <v>2.694922903747239e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.32638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>773534.0657655351</v>
+        <v>856008.8737125419</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>535.7392696475</v>
+        <v>602.4621705821543</v>
       </c>
       <c r="AB4" t="n">
-        <v>733.0221038802021</v>
+        <v>824.315320545636</v>
       </c>
       <c r="AC4" t="n">
-        <v>663.0635030888593</v>
+        <v>745.6438232865785</v>
       </c>
       <c r="AD4" t="n">
-        <v>535739.2696475</v>
+        <v>602462.1705821543</v>
       </c>
       <c r="AE4" t="n">
-        <v>733022.103880202</v>
+        <v>824315.320545636</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.427939456203284e-06</v>
+        <v>2.862300863008729e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.60590277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>663063.5030888593</v>
+        <v>745643.8232865785</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>537.2058644125983</v>
+        <v>603.9287653472526</v>
       </c>
       <c r="AB5" t="n">
-        <v>735.0287635394042</v>
+        <v>826.3219802048382</v>
       </c>
       <c r="AC5" t="n">
-        <v>664.8786499665517</v>
+        <v>747.4589701642708</v>
       </c>
       <c r="AD5" t="n">
-        <v>537205.8644125983</v>
+        <v>603928.7653472526</v>
       </c>
       <c r="AE5" t="n">
-        <v>735028.7635394041</v>
+        <v>826321.9802048382</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.428397624720896e-06</v>
+        <v>2.863219260590411e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.60011574074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>664878.6499665517</v>
+        <v>747458.9701642708</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>661.2253899216671</v>
+        <v>735.7421329697714</v>
       </c>
       <c r="AB2" t="n">
-        <v>904.7177496962288</v>
+        <v>1006.674844981332</v>
       </c>
       <c r="AC2" t="n">
-        <v>818.3727574445564</v>
+        <v>910.5992106533316</v>
       </c>
       <c r="AD2" t="n">
-        <v>661225.3899216671</v>
+        <v>735742.1329697714</v>
       </c>
       <c r="AE2" t="n">
-        <v>904717.7496962288</v>
+        <v>1006674.844981332</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.264857568439569e-06</v>
+        <v>2.646161134733129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.64872685185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>818372.7574445565</v>
+        <v>910599.2106533316</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>489.6827504700822</v>
+        <v>553.5542445113146</v>
       </c>
       <c r="AB3" t="n">
-        <v>670.0055424714353</v>
+        <v>757.3973384300954</v>
       </c>
       <c r="AC3" t="n">
-        <v>606.0611538566457</v>
+        <v>685.112399464167</v>
       </c>
       <c r="AD3" t="n">
-        <v>489682.7504700822</v>
+        <v>553554.2445113146</v>
       </c>
       <c r="AE3" t="n">
-        <v>670005.5424714353</v>
+        <v>757397.3384300953</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.459579533508277e-06</v>
+        <v>3.053531663162945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.82581018518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>606061.1538566457</v>
+        <v>685112.399464167</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>492.591603307596</v>
+        <v>556.4630973488283</v>
       </c>
       <c r="AB4" t="n">
-        <v>673.9855632532517</v>
+        <v>761.3773592119117</v>
       </c>
       <c r="AC4" t="n">
-        <v>609.6613270410398</v>
+        <v>688.7125726485611</v>
       </c>
       <c r="AD4" t="n">
-        <v>492591.6033075959</v>
+        <v>556463.0973488283</v>
       </c>
       <c r="AE4" t="n">
-        <v>673985.5632532517</v>
+        <v>761377.3592119117</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.4604743954801e-06</v>
+        <v>3.055403770370802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.82002314814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>609661.3270410398</v>
+        <v>688712.5726485611</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>514.1074066701644</v>
+        <v>585.8797622358509</v>
       </c>
       <c r="AB2" t="n">
-        <v>703.4244346241704</v>
+        <v>801.6265378819987</v>
       </c>
       <c r="AC2" t="n">
-        <v>636.2905938460334</v>
+        <v>725.1204261964521</v>
       </c>
       <c r="AD2" t="n">
-        <v>514107.4066701645</v>
+        <v>585879.7622358509</v>
       </c>
       <c r="AE2" t="n">
-        <v>703424.4346241704</v>
+        <v>801626.5378819987</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.404030202414897e-06</v>
+        <v>3.052159156572868e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.71701388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>636290.5938460334</v>
+        <v>725120.4261964521</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>469.7527405699332</v>
+        <v>531.2598004412765</v>
       </c>
       <c r="AB3" t="n">
-        <v>642.7364236760689</v>
+        <v>726.8930964920131</v>
       </c>
       <c r="AC3" t="n">
-        <v>581.3945614866603</v>
+        <v>657.519439563683</v>
       </c>
       <c r="AD3" t="n">
-        <v>469752.7405699331</v>
+        <v>531259.8004412765</v>
       </c>
       <c r="AE3" t="n">
-        <v>642736.4236760689</v>
+        <v>726893.0964920131</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.474321196241567e-06</v>
+        <v>3.204961639071945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.11226851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>581394.5614866604</v>
+        <v>657519.439563683</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>421.4674510374715</v>
+        <v>487.8835002241633</v>
       </c>
       <c r="AB2" t="n">
-        <v>576.6703603411223</v>
+        <v>667.5437289076503</v>
       </c>
       <c r="AC2" t="n">
-        <v>521.6337505120989</v>
+        <v>603.8342923242112</v>
       </c>
       <c r="AD2" t="n">
-        <v>421467.4510374715</v>
+        <v>487883.5002241633</v>
       </c>
       <c r="AE2" t="n">
-        <v>576670.3603411224</v>
+        <v>667543.7289076503</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.434290974488025e-06</v>
+        <v>3.411499756357541e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.36226851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>521633.750512099</v>
+        <v>603834.2923242112</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1135.099081319284</v>
+        <v>1238.723047175095</v>
       </c>
       <c r="AB2" t="n">
-        <v>1553.092640098253</v>
+        <v>1694.875521748901</v>
       </c>
       <c r="AC2" t="n">
-        <v>1404.867658306486</v>
+        <v>1533.11898072592</v>
       </c>
       <c r="AD2" t="n">
-        <v>1135099.081319284</v>
+        <v>1238723.047175094</v>
       </c>
       <c r="AE2" t="n">
-        <v>1553092.640098253</v>
+        <v>1694875.521748901</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.662219227858503e-07</v>
+        <v>1.875029194877958e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.58854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1404867.658306486</v>
+        <v>1533118.98072592</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>755.8666794545212</v>
+        <v>836.4441327080245</v>
       </c>
       <c r="AB3" t="n">
-        <v>1034.210137314097</v>
+        <v>1144.459763681891</v>
       </c>
       <c r="AC3" t="n">
-        <v>935.5065733318831</v>
+        <v>1035.234130095457</v>
       </c>
       <c r="AD3" t="n">
-        <v>755866.6794545212</v>
+        <v>836444.1327080246</v>
       </c>
       <c r="AE3" t="n">
-        <v>1034210.137314097</v>
+        <v>1144459.763681891</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.233272079854622e-06</v>
+        <v>2.393260906653835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.99768518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>935506.5733318832</v>
+        <v>1035234.130095457</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>644.9094917170032</v>
+        <v>725.401604115935</v>
       </c>
       <c r="AB4" t="n">
-        <v>882.3936179659802</v>
+        <v>992.5264772115761</v>
       </c>
       <c r="AC4" t="n">
-        <v>798.1792095145271</v>
+        <v>897.8011432461625</v>
       </c>
       <c r="AD4" t="n">
-        <v>644909.4917170032</v>
+        <v>725401.604115935</v>
       </c>
       <c r="AE4" t="n">
-        <v>882393.6179659802</v>
+        <v>992526.4772115761</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.336137075016769e-06</v>
+        <v>2.592878473293081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.99652777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>798179.2095145271</v>
+        <v>897801.1432461624</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>585.3224569121692</v>
+        <v>654.4619947190906</v>
       </c>
       <c r="AB5" t="n">
-        <v>800.8640081515615</v>
+        <v>895.4637740001257</v>
       </c>
       <c r="AC5" t="n">
-        <v>724.430671233271</v>
+        <v>810.0019682008531</v>
       </c>
       <c r="AD5" t="n">
-        <v>585322.4569121691</v>
+        <v>654461.9947190906</v>
       </c>
       <c r="AE5" t="n">
-        <v>800864.0081515615</v>
+        <v>895463.7740001257</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.388483558823031e-06</v>
+        <v>2.694460918351825e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.54513888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>724430.671233271</v>
+        <v>810001.9682008531</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>580.7033182498335</v>
+        <v>649.842856056755</v>
       </c>
       <c r="AB6" t="n">
-        <v>794.5438988517385</v>
+        <v>889.1436647003026</v>
       </c>
       <c r="AC6" t="n">
-        <v>718.7137442946937</v>
+        <v>804.285041262276</v>
       </c>
       <c r="AD6" t="n">
-        <v>580703.3182498335</v>
+        <v>649842.8560567549</v>
       </c>
       <c r="AE6" t="n">
-        <v>794543.8988517385</v>
+        <v>889143.6647003025</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.39153017957366e-06</v>
+        <v>2.700373124148895e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.51909722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>718713.7442946937</v>
+        <v>804285.041262276</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1535.253581077571</v>
+        <v>1655.036547264245</v>
       </c>
       <c r="AB2" t="n">
-        <v>2100.601680238144</v>
+        <v>2264.49401902626</v>
       </c>
       <c r="AC2" t="n">
-        <v>1900.123204089189</v>
+        <v>2048.37388808771</v>
       </c>
       <c r="AD2" t="n">
-        <v>1535253.581077571</v>
+        <v>1655036.547264244</v>
       </c>
       <c r="AE2" t="n">
-        <v>2100601.680238144</v>
+        <v>2264494.01902626</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.146101774944797e-07</v>
+        <v>1.528528206913952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.96122685185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1900123.204089189</v>
+        <v>2048373.88808771</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>942.216284439437</v>
+        <v>1037.94024836329</v>
       </c>
       <c r="AB3" t="n">
-        <v>1289.18188801881</v>
+        <v>1420.155638502666</v>
       </c>
       <c r="AC3" t="n">
-        <v>1166.144178004438</v>
+        <v>1284.617977564928</v>
       </c>
       <c r="AD3" t="n">
-        <v>942216.284439437</v>
+        <v>1037940.24836329</v>
       </c>
       <c r="AE3" t="n">
-        <v>1289181.88801881</v>
+        <v>1420155.638502666</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.11059428300571e-06</v>
+        <v>2.083910482475046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1166144.178004438</v>
+        <v>1284617.977564928</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>803.8670464344116</v>
+        <v>887.6895205087113</v>
       </c>
       <c r="AB4" t="n">
-        <v>1099.88635704272</v>
+        <v>1214.575964057742</v>
       </c>
       <c r="AC4" t="n">
-        <v>994.9147468267595</v>
+        <v>1098.658538716142</v>
       </c>
       <c r="AD4" t="n">
-        <v>803867.0464344115</v>
+        <v>887689.5205087113</v>
       </c>
       <c r="AE4" t="n">
-        <v>1099886.35704272</v>
+        <v>1214575.964057742</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.222902769569394e-06</v>
+        <v>2.29464525394133e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.63020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>994914.7468267595</v>
+        <v>1098658.538716142</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>737.5734029027215</v>
+        <v>809.4091357814476</v>
       </c>
       <c r="AB5" t="n">
-        <v>1009.180469293522</v>
+        <v>1107.469288187061</v>
       </c>
       <c r="AC5" t="n">
-        <v>912.8657016978317</v>
+        <v>1001.773973665395</v>
       </c>
       <c r="AD5" t="n">
-        <v>737573.4029027214</v>
+        <v>809409.1357814476</v>
       </c>
       <c r="AE5" t="n">
-        <v>1009180.469293522</v>
+        <v>1107469.288187061</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.283167161836695e-06</v>
+        <v>2.407724891291822e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.03703703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>912865.7016978317</v>
+        <v>1001773.973665395</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>674.3293768471394</v>
+        <v>746.2503610718862</v>
       </c>
       <c r="AB6" t="n">
-        <v>922.6472027147624</v>
+        <v>1021.052666260951</v>
       </c>
       <c r="AC6" t="n">
-        <v>834.5910486311468</v>
+        <v>923.6048328494225</v>
       </c>
       <c r="AD6" t="n">
-        <v>674329.3768471394</v>
+        <v>746250.3610718863</v>
       </c>
       <c r="AE6" t="n">
-        <v>922647.2027147624</v>
+        <v>1021052.666260951</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.324695680157297e-06</v>
+        <v>2.485648680360628e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.66087962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>834591.0486311468</v>
+        <v>923604.8328494225</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>639.485695684676</v>
+        <v>711.2360877088306</v>
       </c>
       <c r="AB7" t="n">
-        <v>874.9725409535567</v>
+        <v>973.1445927248981</v>
       </c>
       <c r="AC7" t="n">
-        <v>791.4663896766226</v>
+        <v>880.2690386122471</v>
       </c>
       <c r="AD7" t="n">
-        <v>639485.6956846759</v>
+        <v>711236.0877088306</v>
       </c>
       <c r="AE7" t="n">
-        <v>874972.5409535568</v>
+        <v>973144.5927248981</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.346153860574883e-06</v>
+        <v>2.525912643349909e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.47280092592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>791466.3896766226</v>
+        <v>880269.0386122471</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>635.058080293955</v>
+        <v>706.8084723181096</v>
       </c>
       <c r="AB8" t="n">
-        <v>868.914482243367</v>
+        <v>967.0865340147084</v>
       </c>
       <c r="AC8" t="n">
-        <v>785.9865035871946</v>
+        <v>874.789152522819</v>
       </c>
       <c r="AD8" t="n">
-        <v>635058.0802939549</v>
+        <v>706808.4723181096</v>
       </c>
       <c r="AE8" t="n">
-        <v>868914.482243367</v>
+        <v>967086.5340147084</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.35085117370112e-06</v>
+        <v>2.534726645198308e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>785986.5035871946</v>
+        <v>874789.152522819</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>408.7524792638382</v>
+        <v>481.9486821151337</v>
       </c>
       <c r="AB2" t="n">
-        <v>559.2731750154722</v>
+        <v>659.4234489451799</v>
       </c>
       <c r="AC2" t="n">
-        <v>505.8969281368259</v>
+        <v>596.4890004844744</v>
       </c>
       <c r="AD2" t="n">
-        <v>408752.4792638382</v>
+        <v>481948.6821151337</v>
       </c>
       <c r="AE2" t="n">
-        <v>559273.1750154722</v>
+        <v>659423.4489451798</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.342136252559374e-06</v>
+        <v>3.356580913559356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.78587962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>505896.9281368259</v>
+        <v>596489.0004844745</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>739.3954836172267</v>
+        <v>815.0078610916065</v>
       </c>
       <c r="AB2" t="n">
-        <v>1011.673520511636</v>
+        <v>1115.129711154749</v>
       </c>
       <c r="AC2" t="n">
-        <v>915.1208196067082</v>
+        <v>1008.703296616518</v>
       </c>
       <c r="AD2" t="n">
-        <v>739395.4836172267</v>
+        <v>815007.8610916066</v>
       </c>
       <c r="AE2" t="n">
-        <v>1011673.520511635</v>
+        <v>1115129.711154748</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.205916358401373e-06</v>
+        <v>2.483323608731252e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.10590277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>915120.8196067082</v>
+        <v>1008703.296616518</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>523.6933443456951</v>
+        <v>599.2202914569523</v>
       </c>
       <c r="AB3" t="n">
-        <v>716.5403374535546</v>
+        <v>819.8796385049213</v>
       </c>
       <c r="AC3" t="n">
-        <v>648.1547333176665</v>
+        <v>741.6314765143109</v>
       </c>
       <c r="AD3" t="n">
-        <v>523693.344345695</v>
+        <v>599220.2914569522</v>
       </c>
       <c r="AE3" t="n">
-        <v>716540.3374535546</v>
+        <v>819879.6385049213</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.429369197005362e-06</v>
+        <v>2.943476342938218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>648154.7333176665</v>
+        <v>741631.4765143108</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>506.6632246710217</v>
+        <v>571.5469065170792</v>
       </c>
       <c r="AB4" t="n">
-        <v>693.2389763988117</v>
+        <v>782.0156923666079</v>
       </c>
       <c r="AC4" t="n">
-        <v>627.0772214583225</v>
+        <v>707.3812122530558</v>
       </c>
       <c r="AD4" t="n">
-        <v>506663.2246710217</v>
+        <v>571546.9065170791</v>
       </c>
       <c r="AE4" t="n">
-        <v>693238.9763988117</v>
+        <v>782015.692366608</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.449944964832617e-06</v>
+        <v>2.985847681262985e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.73032407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>627077.2214583225</v>
+        <v>707381.2122530558</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>965.4109218733645</v>
+        <v>1055.501380503553</v>
       </c>
       <c r="AB2" t="n">
-        <v>1320.917814231094</v>
+        <v>1444.183554239446</v>
       </c>
       <c r="AC2" t="n">
-        <v>1194.851271960674</v>
+        <v>1306.352702747181</v>
       </c>
       <c r="AD2" t="n">
-        <v>965410.9218733645</v>
+        <v>1055501.380503553</v>
       </c>
       <c r="AE2" t="n">
-        <v>1320917.814231094</v>
+        <v>1444183.554239446</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.053102476890703e-06</v>
+        <v>2.086389895295004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.55266203703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>1194851.271960674</v>
+        <v>1306352.702747181</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>667.8117157612453</v>
+        <v>746.5555262080886</v>
       </c>
       <c r="AB3" t="n">
-        <v>913.7294512781284</v>
+        <v>1021.470206663239</v>
       </c>
       <c r="AC3" t="n">
-        <v>826.5243948754825</v>
+        <v>923.9825237817373</v>
       </c>
       <c r="AD3" t="n">
-        <v>667811.7157612453</v>
+        <v>746555.5262080886</v>
       </c>
       <c r="AE3" t="n">
-        <v>913729.4512781284</v>
+        <v>1021470.206663238</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.306105168049547e-06</v>
+        <v>2.587634807257203e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.54050925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>826524.3948754824</v>
+        <v>923982.5237817373</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>569.4444941863524</v>
+        <v>637.0123381589937</v>
       </c>
       <c r="AB4" t="n">
-        <v>779.1390790638216</v>
+        <v>871.5883840700853</v>
       </c>
       <c r="AC4" t="n">
-        <v>704.7791388865352</v>
+        <v>788.4052119764157</v>
       </c>
       <c r="AD4" t="n">
-        <v>569444.4941863524</v>
+        <v>637012.3381589936</v>
       </c>
       <c r="AE4" t="n">
-        <v>779139.0790638216</v>
+        <v>871588.3840700854</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.39932562271143e-06</v>
+        <v>2.772321690926496e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.70428240740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>704779.1388865352</v>
+        <v>788405.2119764157</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>551.6644181048791</v>
+        <v>619.2322620775203</v>
       </c>
       <c r="AB5" t="n">
-        <v>754.8115945675534</v>
+        <v>847.2608995738169</v>
       </c>
       <c r="AC5" t="n">
-        <v>682.7734353667519</v>
+        <v>766.3995084566322</v>
       </c>
       <c r="AD5" t="n">
-        <v>551664.4181048791</v>
+        <v>619232.2620775204</v>
       </c>
       <c r="AE5" t="n">
-        <v>754811.5945675534</v>
+        <v>847260.8995738169</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.414664264613901e-06</v>
+        <v>2.802710364559999e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.57696759259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>682773.4353667519</v>
+        <v>766399.5084566323</v>
       </c>
     </row>
   </sheetData>
